--- a/timetabledatabase/ComputerEngineering.xlsx
+++ b/timetabledatabase/ComputerEngineering.xlsx
@@ -18,7 +18,7 @@
     <sheet name="BE" sheetId="4" r:id="rId4"/>
     <sheet name="DT" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Subject</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>End-Time</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>ExamTitle</t>
+  </si>
+  <si>
+    <t>NumSub</t>
   </si>
 </sst>
 </file>
@@ -75,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,7 +407,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="A2:D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,11 +438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="false">
-      <selection sqref="A1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,7 +453,7 @@
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:4" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,27 +467,11 @@
         <v>3</v>
       </c>
     </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>wqv</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Tuesday 20/07/2021</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>12:37</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>12:37</t>
-        </is>
-      </c>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -482,11 +479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="false">
-      <selection sqref="A1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,7 +494,7 @@
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:4" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,28 +506,6 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Tuesday 20/07/2021</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -539,11 +514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="false">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +529,7 @@
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:4" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,28 +541,6 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>qb</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Tuesday 20/07/2021</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>12:37</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>12:37</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -597,20 +550,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="D6" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/timetabledatabase/ComputerEngineering.xlsx
+++ b/timetabledatabase/ComputerEngineering.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timetabledatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A31279D-4079-4F95-B208-A8BB59BDF7DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Subject</t>
   </si>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,11 +404,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="false">
+      <selection activeCell="A5" sqref="A5:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,69 +453,141 @@
         <v>3</v>
       </c>
     </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Thursday 22/07/2021</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>21:37</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>21:37</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Thursday 22/07/2021</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>21:37</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>21:37</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>four</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Thursday 22/07/2021</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>21:40</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>21:40</t>
+    <row spans="1:4" x14ac:dyDescent="0.3" outlineLevel="0" r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>DM</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Friday 09/07/2021</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>MPMC</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Friday 09/07/2021</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>FL &amp; AT</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Saturday 10/07/2021</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MADF</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Saturday 10/07/2021</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>OOSE</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Monday 12/07/2021</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ECO</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Monday 12/07/2021</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>04:00</t>
         </is>
       </c>
     </row>
@@ -503,49 +596,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -580,11 +632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,11 +667,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="false">
-      <selection activeCell="D6" sqref="A2:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,7 +705,7 @@
     <row outlineLevel="0" r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -663,34 +715,12 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>IT1</t>
+          <t>Internal Test 3</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>FE</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Computer Engineering</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>it2</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
